--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="10480" windowWidth="28000"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="10480" windowWidth="28000"/>
   </bookViews>
   <sheets>
     <sheet name="example1" sheetId="1" state="visible" r:id="rId1"/>
@@ -51,22 +51,9 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -81,23 +68,14 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -106,60 +84,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,7 +108,82 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -208,19 +208,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,25 +262,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,133 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,17 +426,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,11 +444,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,6 +466,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,176 +501,161 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="19" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="17" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="15" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="16" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="20" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="16" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="15" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="8" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0">
@@ -2321,13 +2321,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.4" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.4" outlineLevelRow="3"/>
   <cols>
     <col customWidth="1" max="2" min="2" width="19.1875"/>
     <col customWidth="1" max="3" min="3" width="16.5089285714286"/>
@@ -2452,8 +2452,16 @@
           <t>{"code":200,"msg":"success"}</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'success'}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="155" r="3" s="1">
       <c r="A3" s="3" t="n">
@@ -2504,23 +2512,99 @@
           <t>{"code":200,"msg":"success"}</t>
         </is>
       </c>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'success'}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="4" s="1">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>关注设计师列表</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>获取关注的设计师第二页</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>getFollowList</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>/dreamAppV3/user/getFollowList</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{"code":"123456","mobilePhone":"15733100728","nationCode":"86"}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>{'x-access-token': '#token'}</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>{"page": 3, "size": "10"}</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>{"code":200,"msg":"success"}</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'success'}</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3">
+    <cfRule dxfId="1" operator="between" priority="4" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",L3)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="between" priority="3" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
     <cfRule dxfId="1" operator="between" priority="2" text="PASS" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("PASS",L3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PASS",L4)))</formula>
     </cfRule>
     <cfRule dxfId="0" operator="between" priority="1" text="FAIL" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("FAIL",L3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FAIL",L4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L2">
-    <cfRule dxfId="0" operator="between" priority="3" text="FAIL" type="containsText">
+    <cfRule dxfId="0" operator="between" priority="5" text="FAIL" type="containsText">
       <formula>NOT(ISERROR(SEARCH("FAIL",L1)))</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="between" priority="4" text="PASS" type="containsText">
+    <cfRule dxfId="1" operator="between" priority="6" text="PASS" type="containsText">
       <formula>NOT(ISERROR(SEARCH("PASS",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2537,7 +2621,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -2696,7 +2780,7 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -2826,7 +2910,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 200, 'msg': 'success', 'data': True}</t>
+          <t>{'code': 200, 'msg': 'success', 'data': False}</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
